--- a/video notes.xlsx
+++ b/video notes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>kt</t>
   </si>
@@ -114,12 +114,6 @@
   </si>
   <si>
     <t>only3 videos</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>good</t>
   </si>
 </sst>
 </file>
@@ -135,12 +129,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -155,8 +155,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,20 +438,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I16"/>
+  <dimension ref="B2:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -463,20 +464,23 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -501,8 +505,11 @@
       <c r="I4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -527,8 +534,11 @@
       <c r="I5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
         <v>15</v>
       </c>
@@ -541,17 +551,28 @@
       <c r="I6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D9" t="s">
@@ -560,17 +581,20 @@
       <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>22</v>
       </c>
@@ -592,8 +616,11 @@
       <c r="I10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>24</v>
       </c>
@@ -603,23 +630,253 @@
       <c r="H11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>31</v>
+      <c r="M11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M60">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
